--- a/public/uploads/files/import_order_excel_template.xlsx
+++ b/public/uploads/files/import_order_excel_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hessen\public\uploads\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\eyesimple\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976F753C-E2B8-4E6C-A7D5-46CD0E316736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44BBD8F-F842-48EE-9252-20F40E9D7922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="3405" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Email</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>SKU</t>
   </si>
 </sst>
 </file>
@@ -80,12 +83,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -434,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,16 +456,15 @@
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,37 +493,31 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="J2" s="4"/>
